--- a/pred_ohlcv/54_21/2019-11-02 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 MIX ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-1272610.859977025</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1406472.637777025</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1421868.743877025</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2123158.689077025</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2235675.703277025</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2235675.703277025</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2056052.675577025</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2323176.266577025</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2207452.739077025</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2119236.948277025</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3207307.321922975</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4025890.828622975</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4247492.030022975</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3868413.456822975</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4572028.341022975</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4567557.048522974</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4564417.138022974</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4418752.144222974</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4380751.935822974</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4389797.189422974</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4389757.239422974</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4340492.425522974</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4340503.425522974</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4427217.628122974</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4429060.762422974</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5091344.005222974</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4983444.149622974</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5449439.576022974</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5443937.991222974</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5684907.521703225</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5715311.684422974</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5360206.360622974</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5526012.085922974</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>2662825.892137602</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2540330.228737602</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2563330.228737602</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2552079.866137601</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2625295.928337601</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2566598.273937602</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3115463.34994628</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3073373.73984628</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3092373.73984628</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2422714.163246281</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2860362.637235522</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3351170.745330125</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4665332.085536554</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4200502.688701261</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3213903.295401261</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3757560.109001261</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4974187.161910987</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>8168128.551210987</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>15284176.9213085</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>14681966.8596085</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>14434958.87127773</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>13460672.78127773</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>13461519.46747774</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 MIX ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-1273544.627577025</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1406472.637777025</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1421868.743877025</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2123158.689077025</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2235675.703277025</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3207307.321922975</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>4025890.828622975</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>4247492.030022975</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3868413.456822975</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4572028.341022975</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4567557.048522974</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4564417.138022974</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4418752.144222974</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4380751.935822974</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4389797.189422974</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4389757.239422974</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>4340492.425522974</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4340503.425522974</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4427217.628122974</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4429060.762422974</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5091344.005222974</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4983444.149622974</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5449439.576022974</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5443937.991222974</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5684907.521703225</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5715311.684422974</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5360206.360622974</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5526012.085922974</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>2662825.892137602</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2540330.228737602</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2563330.228737602</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2552079.866137601</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2625295.928337601</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2566598.273937602</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3115463.34994628</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3073373.73984628</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3092373.73984628</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2422714.163246281</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2860362.637235522</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3351170.745330125</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4665332.085536554</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4200502.688701261</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3213903.295401261</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3757560.109001261</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>4974187.161910987</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>8168128.551210987</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>15596358.70682291</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>15596358.70682291</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>15421542.21252291</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>15421542.21252291</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>14029700.01022291</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>12106424.3028536</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>12650415.34205162</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>13509384.3338536</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>13231677.81996733</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>13231677.81996733</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>14277592.68198105</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>13791676.65559478</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>13791676.65559478</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>14296337.11590851</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>14296337.11590851</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>15284176.9213085</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>15284176.9213085</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>14681966.8596085</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>14434958.87127773</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>13460672.78127773</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>13461519.46747774</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>13077226.51047773</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>13215150.69987774</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>13081633.11487773</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>12968749.20047773</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
